--- a/2025-04-0609/correspondence_exposure_times.xlsx
+++ b/2025-04-0609/correspondence_exposure_times.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehud\Documents\bell-pepper\2025-04-0609\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E113084E-C22C-470B-A7CC-26CF1337954E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFAA220-FAAD-4396-8EDF-CE82ECF14A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32535" yWindow="2475" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Control" sheetId="1" r:id="rId1"/>
-    <sheet name="Stage1" sheetId="2" r:id="rId2"/>
-    <sheet name="Stage2" sheetId="3" r:id="rId3"/>
-    <sheet name="Stage3" sheetId="4" r:id="rId4"/>
+    <sheet name="control" sheetId="1" r:id="rId1"/>
+    <sheet name="stage1" sheetId="2" r:id="rId2"/>
+    <sheet name="stage2" sheetId="3" r:id="rId3"/>
+    <sheet name="stage3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="248">
   <si>
     <t>Petri plate</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>NaN</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>001</t>
@@ -886,7 +883,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -894,13 +891,16 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -916,12 +916,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36AE22C1-AF00-4E09-B145-85A6ED66AC06}" name="Control" displayName="Control" ref="A1:D122" totalsRowCount="1" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36AE22C1-AF00-4E09-B145-85A6ED66AC06}" name="Control" displayName="Control" ref="A1:D121" dataCellStyle="Normal">
   <autoFilter ref="A1:D121" xr:uid="{36AE22C1-AF00-4E09-B145-85A6ED66AC06}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9E721272-50F5-45A3-AEB8-B8E88DF8FD7D}" name="Petri plate" totalsRowLabel="Total" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{5DD1C96E-5180-4DD4-9353-C067733D7F4B}" name="seed" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{EFCC3E94-36D9-42E3-93D1-F43A2C8B7F45}" name="file name" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{EFCC3E94-36D9-42E3-93D1-F43A2C8B7F45}" name="file name" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{605D3F87-F5BC-4418-AD42-99F043680174}" name="exposure time (s)" totalsRowFunction="count" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -929,13 +929,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B4F6ACE5-90F9-4856-8A17-CB80735378C6}" name="Stage1" displayName="Stage1" ref="A1:D122" totalsRowCount="1" headerRowCellStyle="Normal" dataCellStyle="Normal" totalsRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B4F6ACE5-90F9-4856-8A17-CB80735378C6}" name="Stage1" displayName="Stage1" ref="A1:D121" headerRowCellStyle="Normal" dataCellStyle="Normal" totalsRowCellStyle="Normal">
   <autoFilter ref="A1:D121" xr:uid="{36AE22C1-AF00-4E09-B145-85A6ED66AC06}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FA9288FC-F656-4A63-8F5D-9A5F73184AB4}" name="Petri plate" totalsRowLabel="Total" dataCellStyle="Normal" totalsRowCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{9349B4BF-81A1-45B0-96E0-A1FBF6E4350A}" name="seed" dataCellStyle="Normal" totalsRowCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{25F10590-CAEF-40F6-BFFC-2651B215C894}" name="file name" dataCellStyle="Normal" totalsRowCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{29F082D4-EAB3-42F5-99A2-990FA620AA20}" name="exposure time (s)" totalsRowFunction="count" dataCellStyle="Normal" totalsRowCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{FA9288FC-F656-4A63-8F5D-9A5F73184AB4}" name="Petri plate" totalsRowLabel="Total" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{9349B4BF-81A1-45B0-96E0-A1FBF6E4350A}" name="seed" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{25F10590-CAEF-40F6-BFFC-2651B215C894}" name="file name" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{29F082D4-EAB3-42F5-99A2-990FA620AA20}" name="exposure time (s)" totalsRowFunction="count" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -947,21 +947,21 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7680ABA3-EDD6-4474-AA09-578BE822B429}" name="Petri plate" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{A742F090-C0FC-4CCB-89F6-4131AD4E54B6}" name="seed"/>
-    <tableColumn id="3" xr3:uid="{E2DA7FE9-BF81-48E5-8AF6-6B1769E66E28}" name="file name"/>
-    <tableColumn id="4" xr3:uid="{2443DD3E-8EFA-407F-B8A3-546C6AEBB2B5}" name="exposure time (s)" totalsRowFunction="count" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{E2DA7FE9-BF81-48E5-8AF6-6B1769E66E28}" name="file name" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{2443DD3E-8EFA-407F-B8A3-546C6AEBB2B5}" name="exposure time (s)" totalsRowFunction="count" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{36870545-CD37-44F3-ACC2-AB1CF99C7859}" name="Stage156" displayName="Stage156" ref="A1:D122" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{36870545-CD37-44F3-ACC2-AB1CF99C7859}" name="Stage156" displayName="Stage156" ref="A1:D121">
   <autoFilter ref="A1:D121" xr:uid="{36AE22C1-AF00-4E09-B145-85A6ED66AC06}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B967D651-DA0B-4B30-A6E8-667163B0C439}" name="Petri plate" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{4DFFFAEC-43C6-4557-953B-6984F33DAA9A}" name="seed"/>
     <tableColumn id="3" xr3:uid="{A6B71962-6C0D-4E68-B95F-D60A34E53AD7}" name="file name"/>
-    <tableColumn id="4" xr3:uid="{84027C01-67D8-4B5B-95C9-880DD853CF9B}" name="exposure time (s)" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{84027C01-67D8-4B5B-95C9-880DD853CF9B}" name="exposure time (s)" totalsRowFunction="count" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1230,11 +1230,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1265,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -1273,7 +1271,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>5.5</v>
@@ -1284,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>5.5</v>
@@ -1292,7 +1290,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>3.5</v>
@@ -1303,7 +1301,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1311,7 +1309,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>8.5</v>
@@ -1325,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1333,7 +1331,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1344,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1352,7 +1350,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -1363,7 +1361,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>4.5</v>
@@ -1371,7 +1369,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>5.5</v>
@@ -1385,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>5.5</v>
@@ -1393,7 +1391,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>4.5</v>
@@ -1404,7 +1402,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -1412,7 +1410,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>7.5</v>
@@ -1423,7 +1421,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>5.5</v>
@@ -1431,7 +1429,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>5.5</v>
@@ -1445,7 +1443,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <v>6</v>
@@ -1453,7 +1451,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -1464,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>5.5</v>
@@ -1472,7 +1470,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23">
         <v>5.5</v>
@@ -1483,7 +1481,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <v>5</v>
@@ -1491,7 +1489,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25">
         <v>4.8</v>
@@ -1505,7 +1503,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -1513,7 +1511,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C27" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -1524,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28">
         <v>4.5</v>
@@ -1532,7 +1530,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C29" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29">
         <v>4.5</v>
@@ -1543,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -1551,7 +1549,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31">
         <v>4.5</v>
@@ -1565,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32">
         <v>8</v>
@@ -1573,7 +1571,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C33" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33">
         <v>6</v>
@@ -1584,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <v>7</v>
@@ -1592,7 +1590,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C35" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35">
         <v>7</v>
@@ -1603,7 +1601,7 @@
         <v>6</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1611,7 +1609,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C37" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37">
         <v>7.5</v>
@@ -1625,7 +1623,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38">
         <v>6.5</v>
@@ -1633,7 +1631,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C39" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39">
         <v>10</v>
@@ -1644,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -1652,7 +1650,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C41" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41">
         <v>3.5</v>
@@ -1663,7 +1661,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -1671,7 +1669,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C43" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -1685,7 +1683,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44">
         <v>7</v>
@@ -1693,7 +1691,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C45" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D45">
         <v>6</v>
@@ -1704,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46">
         <v>7</v>
@@ -1712,7 +1710,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C47" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -1723,7 +1721,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48">
         <v>6.5</v>
@@ -1731,7 +1729,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C49" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49">
         <v>5.5</v>
@@ -1745,7 +1743,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50">
         <v>7</v>
@@ -1753,7 +1751,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C51" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D51">
         <v>8.3000000000000007</v>
@@ -1764,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D52">
         <v>3.5</v>
@@ -1772,7 +1770,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C53" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D53">
         <v>7.5</v>
@@ -1783,7 +1781,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D54">
         <v>6</v>
@@ -1791,7 +1789,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C55" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D55">
         <v>6</v>
@@ -1805,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D56">
         <v>6</v>
@@ -1813,7 +1811,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C57" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D57">
         <v>5</v>
@@ -1824,7 +1822,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D58">
         <v>4</v>
@@ -1832,7 +1830,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C59" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D59">
         <v>4.5</v>
@@ -1843,7 +1841,7 @@
         <v>6</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D60">
         <v>6</v>
@@ -1851,7 +1849,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C61" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D61">
         <v>8</v>
@@ -1865,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D62">
         <v>4</v>
@@ -1873,7 +1871,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C63" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D63">
         <v>8</v>
@@ -1884,7 +1882,7 @@
         <v>5</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D64">
         <v>5</v>
@@ -1892,7 +1890,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C65" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D65">
         <v>3.5</v>
@@ -1903,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D66">
         <v>3.5</v>
@@ -1911,7 +1909,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C67" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D67">
         <v>4.5</v>
@@ -1925,7 +1923,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -1933,7 +1931,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C69" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D69">
         <v>3.5</v>
@@ -1944,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D70">
         <v>2.5</v>
@@ -1952,7 +1950,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C71" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D71">
         <v>2.5</v>
@@ -1963,7 +1961,7 @@
         <v>6</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -1971,7 +1969,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C73" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D73">
         <v>3.3</v>
@@ -1985,7 +1983,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D74">
         <v>7.5</v>
@@ -1993,7 +1991,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C75" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -2004,7 +2002,7 @@
         <v>5</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D76">
         <v>5.5</v>
@@ -2012,7 +2010,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C77" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D77">
         <v>7</v>
@@ -2023,7 +2021,7 @@
         <v>6</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D78">
         <v>6.5</v>
@@ -2031,7 +2029,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C79" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -2045,7 +2043,7 @@
         <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D80">
         <v>7</v>
@@ -2053,7 +2051,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C81" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D81">
         <v>10</v>
@@ -2064,7 +2062,7 @@
         <v>5</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D82">
         <v>8</v>
@@ -2072,7 +2070,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C83" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83">
         <v>10</v>
@@ -2083,7 +2081,7 @@
         <v>6</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D84">
         <v>10</v>
@@ -2091,7 +2089,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C85" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85">
         <v>13</v>
@@ -2105,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D86">
         <v>10</v>
@@ -2113,7 +2111,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C87" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D87">
         <v>10</v>
@@ -2124,7 +2122,7 @@
         <v>5</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D88">
         <v>8</v>
@@ -2132,7 +2130,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C89" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D89">
         <v>5</v>
@@ -2143,7 +2141,7 @@
         <v>6</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D90">
         <v>11.5</v>
@@ -2151,7 +2149,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C91" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D91">
         <v>11.5</v>
@@ -2165,7 +2163,7 @@
         <v>4</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -2173,7 +2171,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C93" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D93">
         <v>8.5</v>
@@ -2184,7 +2182,7 @@
         <v>5</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D94">
         <v>11</v>
@@ -2192,7 +2190,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C95" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D95">
         <v>11</v>
@@ -2203,7 +2201,7 @@
         <v>6</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D96">
         <v>8.5</v>
@@ -2211,7 +2209,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C97" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D97">
         <v>7</v>
@@ -2225,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D98">
         <v>8.5</v>
@@ -2233,7 +2231,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C99" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D99">
         <v>7</v>
@@ -2244,7 +2242,7 @@
         <v>5</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D100">
         <v>9.5</v>
@@ -2252,7 +2250,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C101" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D101">
         <v>7</v>
@@ -2263,7 +2261,7 @@
         <v>6</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D102">
         <v>11</v>
@@ -2271,7 +2269,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C103" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2285,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D104">
         <v>6</v>
@@ -2293,7 +2291,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C105" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D105">
         <v>10</v>
@@ -2304,7 +2302,7 @@
         <v>5</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D106">
         <v>10</v>
@@ -2312,7 +2310,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C107" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D107">
         <v>2.5</v>
@@ -2323,7 +2321,7 @@
         <v>6</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D108">
         <v>6</v>
@@ -2331,7 +2329,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C109" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D109">
         <v>8.5</v>
@@ -2345,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D110">
         <v>10</v>
@@ -2353,7 +2351,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C111" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D111">
         <v>10</v>
@@ -2364,7 +2362,7 @@
         <v>5</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D112">
         <v>11</v>
@@ -2372,7 +2370,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C113" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D113">
         <v>7</v>
@@ -2383,7 +2381,7 @@
         <v>6</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D114">
         <v>7</v>
@@ -2391,7 +2389,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C115" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D115">
         <v>8</v>
@@ -2405,7 +2403,7 @@
         <v>4</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D116">
         <v>4.5</v>
@@ -2413,7 +2411,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C117" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D117">
         <v>2.8</v>
@@ -2424,7 +2422,7 @@
         <v>5</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D118">
         <v>5.5</v>
@@ -2432,7 +2430,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C119" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D119">
         <v>10</v>
@@ -2443,7 +2441,7 @@
         <v>6</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D120">
         <v>1.7</v>
@@ -2451,19 +2449,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C121" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D121">
         <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122">
-        <f>SUBTOTAL(103,Control[exposure time (s)])</f>
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2479,10 +2468,2647 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5812D2D-F091-4505-913D-914610071CEE}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C47" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C49" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C57" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C59" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C61" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C63" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C65" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C69" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C71" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C73" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C75" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C77" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C79" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C81" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C83" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C85" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C87" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C89" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C91" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C93" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C95" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C97" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C99" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C101" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C103" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D103">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>18</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C105" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C107" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D108">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C109" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>19</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D110">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C111" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C113" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D114">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C115" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C117" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C119" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D119">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C121" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3AFD66-1E05-4EFD-B549-D5F6D4A89C1A}">
+  <dimension ref="A1:D121"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>9</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>10</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>11</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>12</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>13</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>14</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="3">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>15</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>16</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>17</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>18</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>19</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D110" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D112" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D113" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>20</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D116" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D118" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D119" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D120" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10B95C6-6979-4D76-8FEC-45AA1FCC7269}">
+  <dimension ref="A1:D121"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2507,2660 +5133,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>7</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>168</v>
-      </c>
-      <c r="D41">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>170</v>
-      </c>
-      <c r="D43">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>172</v>
-      </c>
-      <c r="D45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>173</v>
-      </c>
-      <c r="D46">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>174</v>
-      </c>
-      <c r="D47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>9</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>178</v>
-      </c>
-      <c r="D51">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>179</v>
-      </c>
-      <c r="D52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>180</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" t="s">
-        <v>181</v>
-      </c>
-      <c r="D54">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>182</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>10</v>
-      </c>
-      <c r="B56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
-        <v>183</v>
-      </c>
-      <c r="D56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
-        <v>184</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>185</v>
-      </c>
-      <c r="D58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
-        <v>186</v>
-      </c>
-      <c r="D59">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" t="s">
-        <v>187</v>
-      </c>
-      <c r="D60">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C61" t="s">
-        <v>188</v>
-      </c>
-      <c r="D61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>11</v>
-      </c>
-      <c r="B62" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" t="s">
-        <v>189</v>
-      </c>
-      <c r="D62">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>190</v>
-      </c>
-      <c r="D63">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" t="s">
-        <v>191</v>
-      </c>
-      <c r="D64">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
-        <v>192</v>
-      </c>
-      <c r="D65">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" t="s">
-        <v>193</v>
-      </c>
-      <c r="D66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
-        <v>194</v>
-      </c>
-      <c r="D67">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>12</v>
-      </c>
-      <c r="B68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" t="s">
-        <v>195</v>
-      </c>
-      <c r="D68">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>196</v>
-      </c>
-      <c r="D69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" t="s">
-        <v>197</v>
-      </c>
-      <c r="D70">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
-        <v>198</v>
-      </c>
-      <c r="D71">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" t="s">
-        <v>199</v>
-      </c>
-      <c r="D72">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
-        <v>200</v>
-      </c>
-      <c r="D73">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>13</v>
-      </c>
-      <c r="B74" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
-        <v>202</v>
-      </c>
-      <c r="D75">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" t="s">
-        <v>203</v>
-      </c>
-      <c r="D76">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C77" t="s">
-        <v>204</v>
-      </c>
-      <c r="D77">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" t="s">
-        <v>205</v>
-      </c>
-      <c r="D78">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C79" t="s">
-        <v>206</v>
-      </c>
-      <c r="D79">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>14</v>
-      </c>
-      <c r="B80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" t="s">
-        <v>207</v>
-      </c>
-      <c r="D80">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C81" t="s">
-        <v>208</v>
-      </c>
-      <c r="D81">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" t="s">
-        <v>209</v>
-      </c>
-      <c r="D82">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C83" t="s">
-        <v>210</v>
-      </c>
-      <c r="D83">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" t="s">
-        <v>211</v>
-      </c>
-      <c r="D84">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C85" t="s">
-        <v>212</v>
-      </c>
-      <c r="D85">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>15</v>
-      </c>
-      <c r="B86" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" t="s">
-        <v>213</v>
-      </c>
-      <c r="D86">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C87" t="s">
-        <v>214</v>
-      </c>
-      <c r="D87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s">
-        <v>215</v>
-      </c>
-      <c r="D88">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C89" t="s">
-        <v>216</v>
-      </c>
-      <c r="D89">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" t="s">
-        <v>217</v>
-      </c>
-      <c r="D90">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C91" t="s">
-        <v>218</v>
-      </c>
-      <c r="D91">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>16</v>
-      </c>
-      <c r="B92" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" t="s">
-        <v>219</v>
-      </c>
-      <c r="D92">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C93" t="s">
-        <v>220</v>
-      </c>
-      <c r="D93">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" t="s">
-        <v>221</v>
-      </c>
-      <c r="D94">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C95" t="s">
-        <v>222</v>
-      </c>
-      <c r="D95">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" t="s">
-        <v>223</v>
-      </c>
-      <c r="D96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C97" t="s">
-        <v>224</v>
-      </c>
-      <c r="D97">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>17</v>
-      </c>
-      <c r="B98" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98" t="s">
-        <v>225</v>
-      </c>
-      <c r="D98">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C99" t="s">
-        <v>226</v>
-      </c>
-      <c r="D99">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" t="s">
-        <v>227</v>
-      </c>
-      <c r="D100">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C101" t="s">
-        <v>228</v>
-      </c>
-      <c r="D101">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" t="s">
-        <v>229</v>
-      </c>
-      <c r="D102">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C103" t="s">
-        <v>230</v>
-      </c>
-      <c r="D103">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>18</v>
-      </c>
-      <c r="B104" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" t="s">
-        <v>231</v>
-      </c>
-      <c r="D104">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C105" t="s">
-        <v>232</v>
-      </c>
-      <c r="D105">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" t="s">
-        <v>233</v>
-      </c>
-      <c r="D106">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C107" t="s">
-        <v>234</v>
-      </c>
-      <c r="D107">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" t="s">
-        <v>235</v>
-      </c>
-      <c r="D108">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C109" t="s">
-        <v>236</v>
-      </c>
-      <c r="D109">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>19</v>
-      </c>
-      <c r="B110" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" t="s">
-        <v>237</v>
-      </c>
-      <c r="D110">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C111" t="s">
-        <v>238</v>
-      </c>
-      <c r="D111">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" t="s">
-        <v>239</v>
-      </c>
-      <c r="D112">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C113" t="s">
-        <v>240</v>
-      </c>
-      <c r="D113">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>6</v>
-      </c>
-      <c r="C114" t="s">
-        <v>241</v>
-      </c>
-      <c r="D114">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C115" t="s">
-        <v>242</v>
-      </c>
-      <c r="D115">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>20</v>
-      </c>
-      <c r="B116" t="s">
-        <v>4</v>
-      </c>
-      <c r="C116" t="s">
-        <v>243</v>
-      </c>
-      <c r="D116">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C117" t="s">
-        <v>244</v>
-      </c>
-      <c r="D117">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118" t="s">
-        <v>245</v>
-      </c>
-      <c r="D118">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C119" t="s">
-        <v>246</v>
-      </c>
-      <c r="D119">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
-        <v>6</v>
-      </c>
-      <c r="C120" t="s">
-        <v>247</v>
-      </c>
-      <c r="D120">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C121" t="s">
-        <v>248</v>
-      </c>
-      <c r="D121">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122">
-        <f>SUBTOTAL(103,Stage1[exposure time (s)])</f>
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3AFD66-1E05-4EFD-B549-D5F6D4A89C1A}">
-  <dimension ref="A1:D121"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>21</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>5</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27">
-        <v>26</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30">
-        <v>29</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31">
-        <v>30</v>
-      </c>
-      <c r="D31" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>6</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>31</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33">
-        <v>32</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>33</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35">
-        <v>34</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1">
-        <v>35</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37">
-        <v>36</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>7</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>37</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39">
-        <v>38</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>39</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41">
-        <v>40</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1">
-        <v>41</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43">
-        <v>42</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>8</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>43</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45">
-        <v>44</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46">
-        <v>45</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47">
-        <v>46</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="1">
-        <v>47</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49">
-        <v>48</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>9</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>49</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51">
-        <v>50</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52">
-        <v>51</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53">
-        <v>52</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="1">
-        <v>53</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55">
-        <v>54</v>
-      </c>
-      <c r="D55" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>10</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56">
-        <v>55</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57">
-        <v>56</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58">
-        <v>57</v>
-      </c>
-      <c r="D58" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59">
-        <v>58</v>
-      </c>
-      <c r="D59" s="3">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1">
-        <v>59</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61">
-        <v>60</v>
-      </c>
-      <c r="D61" s="3">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>11</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62">
-        <v>61</v>
-      </c>
-      <c r="D62" s="3">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63">
-        <v>62</v>
-      </c>
-      <c r="D63" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64">
-        <v>63</v>
-      </c>
-      <c r="D64" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="1">
-        <v>64</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66">
-        <v>65</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67">
-        <v>66</v>
-      </c>
-      <c r="D67" s="3">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>12</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68">
-        <v>67</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69">
-        <v>68</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70">
-        <v>69</v>
-      </c>
-      <c r="D70" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="1">
-        <v>70</v>
-      </c>
-      <c r="D71" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72">
-        <v>71</v>
-      </c>
-      <c r="D72" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73">
-        <v>72</v>
-      </c>
-      <c r="D73" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>13</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74">
-        <v>73</v>
-      </c>
-      <c r="D74" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75">
-        <v>74</v>
-      </c>
-      <c r="D75" s="3">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76">
-        <v>75</v>
-      </c>
-      <c r="D76" s="3">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="1">
-        <v>76</v>
-      </c>
-      <c r="D77" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78">
-        <v>77</v>
-      </c>
-      <c r="D78" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79">
-        <v>78</v>
-      </c>
-      <c r="D79" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
-        <v>14</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80">
-        <v>79</v>
-      </c>
-      <c r="D80" s="3">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81">
-        <v>80</v>
-      </c>
-      <c r="D81" s="3">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82">
-        <v>81</v>
-      </c>
-      <c r="D82" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="1">
-        <v>82</v>
-      </c>
-      <c r="D83" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84">
-        <v>83</v>
-      </c>
-      <c r="D84" s="3">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85">
-        <v>84</v>
-      </c>
-      <c r="D85" s="3">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
-        <v>15</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86">
-        <v>85</v>
-      </c>
-      <c r="D86" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87">
-        <v>86</v>
-      </c>
-      <c r="D87" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88">
-        <v>87</v>
-      </c>
-      <c r="D88" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="1">
-        <v>88</v>
-      </c>
-      <c r="D89" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90">
-        <v>89</v>
-      </c>
-      <c r="D90" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91">
-        <v>90</v>
-      </c>
-      <c r="D91" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
-        <v>16</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92">
-        <v>91</v>
-      </c>
-      <c r="D92" s="3">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93">
-        <v>92</v>
-      </c>
-      <c r="D93" s="3">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94">
-        <v>93</v>
-      </c>
-      <c r="D94" s="3">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="1">
-        <v>94</v>
-      </c>
-      <c r="D95" s="3">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96">
-        <v>95</v>
-      </c>
-      <c r="D96" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97">
-        <v>96</v>
-      </c>
-      <c r="D97" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
-        <v>17</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98">
-        <v>97</v>
-      </c>
-      <c r="D98" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99">
-        <v>98</v>
-      </c>
-      <c r="D99" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100">
-        <v>99</v>
-      </c>
-      <c r="D100" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="1">
-        <v>100</v>
-      </c>
-      <c r="D101" s="3">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102">
-        <v>101</v>
-      </c>
-      <c r="D102" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103">
-        <v>102</v>
-      </c>
-      <c r="D103" s="3">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
-        <v>18</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104">
-        <v>103</v>
-      </c>
-      <c r="D104" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105">
-        <v>104</v>
-      </c>
-      <c r="D105" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="1">
-        <v>105</v>
-      </c>
-      <c r="D106" s="3">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107">
-        <v>106</v>
-      </c>
-      <c r="D107" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108">
-        <v>107</v>
-      </c>
-      <c r="D108" s="3">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109">
-        <v>108</v>
-      </c>
-      <c r="D109" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
-        <v>19</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110">
-        <v>109</v>
-      </c>
-      <c r="D110" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111">
-        <v>110</v>
-      </c>
-      <c r="D111" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" s="1">
-        <v>111</v>
-      </c>
-      <c r="D112" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113">
-        <v>112</v>
-      </c>
-      <c r="D113" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C114">
-        <v>113</v>
-      </c>
-      <c r="D114" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115">
-        <v>114</v>
-      </c>
-      <c r="D115" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
-        <v>20</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C116">
-        <v>115</v>
-      </c>
-      <c r="D116" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117">
-        <v>116</v>
-      </c>
-      <c r="D117" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118">
-        <v>117</v>
-      </c>
-      <c r="D118" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119">
-        <v>118</v>
-      </c>
-      <c r="D119" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C120">
-        <v>119</v>
-      </c>
-      <c r="D120" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121">
-        <v>120</v>
-      </c>
-      <c r="D121" s="3">
-        <v>1.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10B95C6-6979-4D76-8FEC-45AA1FCC7269}">
-  <dimension ref="A1:D122"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="3">
         <v>1.2</v>
@@ -5170,7 +5150,7 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="3">
         <v>0.85</v>
@@ -5182,7 +5162,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="3">
         <v>0.7</v>
@@ -5192,7 +5172,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="3">
         <v>0.6</v>
@@ -5204,7 +5184,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="3">
         <v>0.6</v>
@@ -5214,7 +5194,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" s="3">
         <v>1.1000000000000001</v>
@@ -5228,7 +5208,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" s="3">
         <v>0.7</v>
@@ -5238,7 +5218,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" s="3">
         <v>0.5</v>
@@ -5250,7 +5230,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="3">
         <v>1.8</v>
@@ -5260,7 +5240,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="3">
         <v>0.75</v>
@@ -5272,7 +5252,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" s="3">
         <v>1.8</v>
@@ -5282,7 +5262,7 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="3">
         <v>0.5</v>
@@ -5296,7 +5276,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="3">
         <v>0.5</v>
@@ -5306,7 +5286,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" s="3">
         <v>0.5</v>
@@ -5318,7 +5298,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D16" s="3">
         <v>0.8</v>
@@ -5328,7 +5308,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" s="3">
         <v>0.7</v>
@@ -5340,7 +5320,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="3">
         <v>0.4</v>
@@ -5350,7 +5330,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="3">
         <v>0.6</v>
@@ -5364,7 +5344,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="3">
         <v>0.35</v>
@@ -5374,7 +5354,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D21" s="3">
         <v>0.7</v>
@@ -5386,7 +5366,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D22" s="3">
         <v>0.65</v>
@@ -5396,7 +5376,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="3">
         <v>0.55000000000000004</v>
@@ -5408,7 +5388,7 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D24" s="3">
         <v>0.6</v>
@@ -5418,7 +5398,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" s="3">
         <v>0.5</v>
@@ -5432,7 +5412,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D26" s="3">
         <v>0.4</v>
@@ -5442,7 +5422,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D27" s="3">
         <v>0.5</v>
@@ -5454,7 +5434,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D28" s="3">
         <v>0.6</v>
@@ -5464,7 +5444,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D29" s="3">
         <v>0.6</v>
@@ -5476,7 +5456,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D30" s="3">
         <v>0.8</v>
@@ -5486,7 +5466,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D31" s="3">
         <v>0.45</v>
@@ -5500,7 +5480,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D32" s="3">
         <v>0.155</v>
@@ -5510,7 +5490,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D33" s="3">
         <v>0.4</v>
@@ -5522,7 +5502,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D34" s="3">
         <v>0.3</v>
@@ -5532,7 +5512,7 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D35" s="3">
         <v>0.3</v>
@@ -5544,7 +5524,7 @@
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D36" s="3">
         <v>0.35</v>
@@ -5554,7 +5534,7 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D37" s="3">
         <v>0.5</v>
@@ -5568,7 +5548,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D38" s="3">
         <v>0.5</v>
@@ -5578,7 +5558,7 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D39" s="3">
         <v>0.3</v>
@@ -5590,7 +5570,7 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D40" s="3">
         <v>0.35</v>
@@ -5600,7 +5580,7 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D41" s="3">
         <v>0.4</v>
@@ -5612,7 +5592,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D42" s="3">
         <v>1.3</v>
@@ -5622,7 +5602,7 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D43" s="3">
         <v>0.4</v>
@@ -5636,7 +5616,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D44" s="3">
         <v>0.6</v>
@@ -5646,7 +5626,7 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D45" s="3">
         <v>0.7</v>
@@ -5658,7 +5638,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D46" s="3">
         <v>0.35</v>
@@ -5668,7 +5648,7 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D47" s="3">
         <v>0.8</v>
@@ -5680,7 +5660,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D48" s="3">
         <v>0.65</v>
@@ -5690,7 +5670,7 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D49" s="3">
         <v>0.45</v>
@@ -5704,7 +5684,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D50" s="3">
         <v>0.75</v>
@@ -5714,7 +5694,7 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D51" s="3">
         <v>0.75</v>
@@ -5726,7 +5706,7 @@
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D52" s="3">
         <v>0.6</v>
@@ -5736,7 +5716,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D53" s="3">
         <v>0.3</v>
@@ -5748,7 +5728,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D54" s="3">
         <v>0.6</v>
@@ -5758,7 +5738,7 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D55" s="3">
         <v>1.2</v>
@@ -5772,7 +5752,7 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D56" s="3">
         <v>0.3</v>
@@ -5782,7 +5762,7 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D57" s="3">
         <v>0.4</v>
@@ -5794,7 +5774,7 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D58" s="3">
         <v>0.6</v>
@@ -5804,7 +5784,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D59" s="3">
         <v>0.9</v>
@@ -5816,7 +5796,7 @@
         <v>6</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D60" s="3">
         <v>0.25</v>
@@ -5826,7 +5806,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
@@ -5840,7 +5820,7 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="3">
         <v>0.7</v>
@@ -5850,7 +5830,7 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="3">
         <v>0.5</v>
@@ -5862,7 +5842,7 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="3">
         <v>0.7</v>
@@ -5872,7 +5852,7 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="3">
         <v>0.6</v>
@@ -5884,7 +5864,7 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="3">
         <v>1.8</v>
@@ -5894,7 +5874,7 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="3">
         <v>0.5</v>
@@ -5908,7 +5888,7 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="3">
         <v>0.3</v>
@@ -5918,7 +5898,7 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="3">
         <v>0.6</v>
@@ -5930,7 +5910,7 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D70" s="3">
         <v>2.2000000000000002</v>
@@ -5940,7 +5920,7 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D71" s="3">
         <v>1.1000000000000001</v>
@@ -5952,7 +5932,7 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D72" s="3">
         <v>1.3</v>
@@ -5962,7 +5942,7 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D73" s="3">
         <v>1.6</v>
@@ -5976,7 +5956,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D74" s="3">
         <v>0.9</v>
@@ -5986,7 +5966,7 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D75" s="3">
         <v>0.5</v>
@@ -5998,7 +5978,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D76" s="3">
         <v>0.6</v>
@@ -6008,7 +5988,7 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D77" s="3">
         <v>0.6</v>
@@ -6020,7 +6000,7 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D78" s="3">
         <v>0.55000000000000004</v>
@@ -6030,7 +6010,7 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D79" s="3">
         <v>0.75</v>
@@ -6044,7 +6024,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D80" s="3">
         <v>0.5</v>
@@ -6054,7 +6034,7 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D81" s="3">
         <v>0.5</v>
@@ -6066,7 +6046,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D82" s="3">
         <v>0.35</v>
@@ -6076,7 +6056,7 @@
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D83" s="3">
         <v>0.9</v>
@@ -6088,7 +6068,7 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D84" s="3">
         <v>0.6</v>
@@ -6098,7 +6078,7 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D85" s="3">
         <v>0.6</v>
@@ -6112,7 +6092,7 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D86" s="3">
         <v>0.5</v>
@@ -6122,7 +6102,7 @@
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D87" s="3">
         <v>0.35</v>
@@ -6134,7 +6114,7 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D88" s="3">
         <v>0.7</v>
@@ -6144,7 +6124,7 @@
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D89" s="3">
         <v>0.5</v>
@@ -6156,7 +6136,7 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D90" s="3">
         <v>0.45</v>
@@ -6166,7 +6146,7 @@
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D91" s="3">
         <v>0.5</v>
@@ -6180,7 +6160,7 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D92" s="3">
         <v>0.4</v>
@@ -6190,7 +6170,7 @@
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D93" s="3">
         <v>0.4</v>
@@ -6202,7 +6182,7 @@
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D94" s="3">
         <v>0.9</v>
@@ -6212,7 +6192,7 @@
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D95" s="3">
         <v>0.7</v>
@@ -6224,7 +6204,7 @@
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D96" s="3">
         <v>0.4</v>
@@ -6234,7 +6214,7 @@
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D97" s="3">
         <v>0.7</v>
@@ -6248,7 +6228,7 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D98" s="3">
         <v>0.6</v>
@@ -6258,7 +6238,7 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D99" s="3">
         <v>0.4</v>
@@ -6270,7 +6250,7 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D100" s="3">
         <v>0.8</v>
@@ -6280,7 +6260,7 @@
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D101" s="3">
         <v>0.6</v>
@@ -6292,7 +6272,7 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D102" s="3">
         <v>0.7</v>
@@ -6302,7 +6282,7 @@
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D103" s="3">
         <v>1.3</v>
@@ -6316,7 +6296,7 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D104" s="3">
         <v>1.1000000000000001</v>
@@ -6326,7 +6306,7 @@
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D105" s="3">
         <v>0.6</v>
@@ -6338,7 +6318,7 @@
         <v>5</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D106" s="3">
         <v>1</v>
@@ -6348,7 +6328,7 @@
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D107" s="3">
         <v>0.5</v>
@@ -6360,7 +6340,7 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D108" s="3">
         <v>0.4</v>
@@ -6370,7 +6350,7 @@
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D109" s="3">
         <v>0.8</v>
@@ -6384,7 +6364,7 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D110" s="3">
         <v>0.42</v>
@@ -6394,7 +6374,7 @@
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D111" s="3">
         <v>0.45</v>
@@ -6406,7 +6386,7 @@
         <v>5</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D112" s="3">
         <v>0.5</v>
@@ -6416,7 +6396,7 @@
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D113" s="3">
         <v>0.45</v>
@@ -6428,7 +6408,7 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D114" s="3">
         <v>0.35</v>
@@ -6438,7 +6418,7 @@
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D115" s="3">
         <v>0.25</v>
@@ -6452,7 +6432,7 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D116" s="3">
         <v>0.25</v>
@@ -6462,7 +6442,7 @@
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D117" s="3">
         <v>0.35</v>
@@ -6474,7 +6454,7 @@
         <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D118" s="3">
         <v>0.65</v>
@@ -6484,7 +6464,7 @@
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D119" s="3">
         <v>0.55000000000000004</v>
@@ -6496,7 +6476,7 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D120" s="3">
         <v>0.45</v>
@@ -6506,19 +6486,10 @@
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D121" s="3">
         <v>1.5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122">
-        <f>SUBTOTAL(103,Stage156[exposure time (s)])</f>
-        <v>120</v>
       </c>
     </row>
   </sheetData>
